--- a/Experimental_Data_revised.xlsx
+++ b/Experimental_Data_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharykaras/Desktop/Projects/vandy/smell_study/replication_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6A8F5-258E-9F41-AC7A-789EE44EF76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39CE6A-003B-1D45-B4C3-CA0376980AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1300" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8615D450-7225-7541-878C-A4BBE985B00B}"/>
+    <workbookView xWindow="1480" yWindow="1300" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{8615D450-7225-7541-878C-A4BBE985B00B}"/>
   </bookViews>
   <sheets>
     <sheet name="Surveys" sheetId="1" r:id="rId1"/>
@@ -436,9 +436,6 @@
     <t>Data Science</t>
   </si>
   <si>
-    <t>University of Michigan EECS 281</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>DELT_PANAS_NEG</t>
+  </si>
+  <si>
+    <t>[elide for double blind]</t>
   </si>
 </sst>
 </file>
@@ -1184,12 +1184,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0873BBB3-F5EC-EA4E-9464-E048C41BD175}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="149.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1207,7 +1212,7 @@
         <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>90</v>
@@ -2757,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2822,7 +2827,7 @@
         <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>45085</v>
@@ -2840,7 +2845,7 @@
         <v>2025</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
         <v>116</v>
@@ -2917,7 +2922,7 @@
         <v>681</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>45089</v>
@@ -2941,7 +2946,7 @@
         <v>116</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3012,7 +3017,7 @@
         <v>675</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>45090</v>
@@ -3033,7 +3038,7 @@
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" t="s">
         <v>108</v>
@@ -3107,7 +3112,7 @@
         <v>616</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>45093</v>
@@ -3128,25 +3133,25 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" t="s">
         <v>137</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>138</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>139</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3202,7 +3207,7 @@
         <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>45094</v>
@@ -3226,7 +3231,7 @@
         <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3294,7 +3299,7 @@
         <v>601</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>45096</v>
@@ -3389,7 +3394,7 @@
         <v>632</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>45104</v>
@@ -3410,7 +3415,7 @@
         <v>109</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J24" t="s">
         <v>117</v>
@@ -3508,7 +3513,7 @@
         <v>107</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3570,7 +3575,7 @@
         <v>648</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>45113</v>
@@ -3591,10 +3596,10 @@
         <v>115</v>
       </c>
       <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" t="s">
         <v>143</v>
-      </c>
-      <c r="J26" t="s">
-        <v>144</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3665,7 +3670,7 @@
         <v>659</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>45114</v>
@@ -3686,25 +3691,25 @@
         <v>109</v>
       </c>
       <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" t="s">
         <v>145</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
         <v>146</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>147</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3787,7 +3792,7 @@
         <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3882,7 +3887,7 @@
         <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3953,7 +3958,7 @@
         <v>620</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>45117</v>
@@ -3974,10 +3979,10 @@
         <v>109</v>
       </c>
       <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" t="s">
         <v>150</v>
-      </c>
-      <c r="J30" t="s">
-        <v>151</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4069,7 +4074,7 @@
         <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4144,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0C4C03-72B5-8749-853D-568EE21C4B44}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -4158,157 +4163,157 @@
         <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -6889,7 +6894,7 @@
         <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -7050,7 +7055,7 @@
         <v>681</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -7211,7 +7216,7 @@
         <v>675</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -7372,7 +7377,7 @@
         <v>616</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -7533,7 +7538,7 @@
         <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -7694,7 +7699,7 @@
         <v>601</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -7855,7 +7860,7 @@
         <v>632</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -8177,7 +8182,7 @@
         <v>648</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -8338,7 +8343,7 @@
         <v>659</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -8821,7 +8826,7 @@
         <v>620</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -9144,7 +9149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34BC1A8-DFE0-8A47-A217-230C0035C70D}">
   <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
@@ -9158,142 +9163,142 @@
         <v>87</v>
       </c>
       <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>211</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>212</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>216</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>217</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>218</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>219</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB1" t="s">
         <v>221</v>
       </c>
-      <c r="AA1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
@@ -9307,7 +9312,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9458,7 +9463,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -9609,7 +9614,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -9760,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -9911,7 +9916,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -10062,7 +10067,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10213,7 +10218,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -10364,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -10512,7 +10517,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -10663,7 +10668,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -10814,7 +10819,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -10965,7 +10970,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -11116,7 +11121,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -11267,7 +11272,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -11418,7 +11423,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -11566,7 +11571,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -11702,13 +11707,13 @@
         <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -11853,13 +11858,13 @@
         <v>681</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -12004,13 +12009,13 @@
         <v>675</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -12155,13 +12160,13 @@
         <v>616</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -12306,13 +12311,13 @@
         <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -12457,13 +12462,13 @@
         <v>601</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -12608,13 +12613,13 @@
         <v>632</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -12765,7 +12770,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -12910,13 +12915,13 @@
         <v>648</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -13061,13 +13066,13 @@
         <v>659</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -13218,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -13369,7 +13374,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -13514,13 +13519,13 @@
         <v>620</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -13671,7 +13676,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31">
         <v>4</v>
